--- a/three_model_excel_template.xlsx
+++ b/three_model_excel_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>park_fasting_gluc</t>
+  </si>
+  <si>
+    <t>marcus_age</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,7 +430,7 @@
     <col min="1" max="20" width="20.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -453,39 +456,42 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
